--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N2">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q2">
-        <v>186.5523225246562</v>
+        <v>5.260538062319777</v>
       </c>
       <c r="R2">
-        <v>186.5523225246562</v>
+        <v>47.34484256087799</v>
       </c>
       <c r="S2">
-        <v>0.1515277669808155</v>
+        <v>0.003678985050826236</v>
       </c>
       <c r="T2">
-        <v>0.1515277669808155</v>
+        <v>0.003678985050826236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N3">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q3">
-        <v>143.8043891894955</v>
+        <v>3.896966907746778</v>
       </c>
       <c r="R3">
-        <v>143.8043891894955</v>
+        <v>35.072702169721</v>
       </c>
       <c r="S3">
-        <v>0.1168056107853838</v>
+        <v>0.002725364369066593</v>
       </c>
       <c r="T3">
-        <v>0.1168056107853838</v>
+        <v>0.002725364369066593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N4">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q4">
-        <v>541.2491254410462</v>
+        <v>17.361314618557</v>
       </c>
       <c r="R4">
-        <v>541.2491254410462</v>
+        <v>156.251831567013</v>
       </c>
       <c r="S4">
-        <v>0.4396314677216703</v>
+        <v>0.01214172698451992</v>
       </c>
       <c r="T4">
-        <v>0.4396314677216703</v>
+        <v>0.01214172698451993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N5">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O5">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P5">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q5">
-        <v>47.82827335037334</v>
+        <v>1.305217811942</v>
       </c>
       <c r="R5">
-        <v>47.82827335037334</v>
+        <v>11.746960307478</v>
       </c>
       <c r="S5">
-        <v>0.0388486798837482</v>
+        <v>0.0009128109636924154</v>
       </c>
       <c r="T5">
-        <v>0.0388486798837482</v>
+        <v>0.0009128109636924155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N6">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q6">
-        <v>11.93631875692535</v>
+        <v>197.4692761075538</v>
       </c>
       <c r="R6">
-        <v>11.93631875692535</v>
+        <v>1777.223484967984</v>
       </c>
       <c r="S6">
-        <v>0.009695316052519649</v>
+        <v>0.1381011801817103</v>
       </c>
       <c r="T6">
-        <v>0.009695316052519649</v>
+        <v>0.1381011801817103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H7">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N7">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q7">
-        <v>9.201145312912963</v>
+        <v>146.2837499076098</v>
       </c>
       <c r="R7">
-        <v>9.201145312912963</v>
+        <v>1316.553749168488</v>
       </c>
       <c r="S7">
-        <v>0.007473661995001032</v>
+        <v>0.1023043123561351</v>
       </c>
       <c r="T7">
-        <v>0.007473661995001032</v>
+        <v>0.1023043123561351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H8">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N8">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q8">
-        <v>34.63115334475415</v>
+        <v>651.7063823866961</v>
       </c>
       <c r="R8">
-        <v>34.63115334475415</v>
+        <v>5865.357441480264</v>
       </c>
       <c r="S8">
-        <v>0.02812927367123631</v>
+        <v>0.4557742972154081</v>
       </c>
       <c r="T8">
-        <v>0.02812927367123631</v>
+        <v>0.4557742972154082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H9">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N9">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O9">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P9">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q9">
-        <v>3.060232692776904</v>
+        <v>48.99506731697601</v>
       </c>
       <c r="R9">
-        <v>3.060232692776904</v>
+        <v>440.955605852784</v>
       </c>
       <c r="S9">
-        <v>0.002485684552744631</v>
+        <v>0.03426495884793442</v>
       </c>
       <c r="T9">
-        <v>0.002485684552744631</v>
+        <v>0.03426495884793442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H10">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N10">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O10">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P10">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q10">
-        <v>51.30908758497444</v>
+        <v>12.69270858997866</v>
       </c>
       <c r="R10">
-        <v>51.30908758497444</v>
+        <v>114.234377309808</v>
       </c>
       <c r="S10">
-        <v>0.04167598324350365</v>
+        <v>0.00887671272478794</v>
       </c>
       <c r="T10">
-        <v>0.04167598324350365</v>
+        <v>0.008876712724787942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H11">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N11">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P11">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q11">
-        <v>39.55175631250786</v>
+        <v>9.402662761650667</v>
       </c>
       <c r="R11">
-        <v>39.55175631250786</v>
+        <v>84.62396485485601</v>
       </c>
       <c r="S11">
-        <v>0.03212605039217125</v>
+        <v>0.006575801814998928</v>
       </c>
       <c r="T11">
-        <v>0.03212605039217125</v>
+        <v>0.006575801814998929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H12">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N12">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O12">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P12">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q12">
-        <v>148.8643958258682</v>
+        <v>41.889651701352</v>
       </c>
       <c r="R12">
-        <v>148.8643958258682</v>
+        <v>377.006865312168</v>
       </c>
       <c r="S12">
-        <v>0.1209156186166523</v>
+        <v>0.02929574894580882</v>
       </c>
       <c r="T12">
-        <v>0.1209156186166523</v>
+        <v>0.02929574894580883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.065862</v>
+      </c>
+      <c r="N13">
+        <v>18.197586</v>
+      </c>
+      <c r="O13">
+        <v>0.0469097202951384</v>
+      </c>
+      <c r="P13">
+        <v>0.04690972029513841</v>
+      </c>
+      <c r="Q13">
+        <v>3.149249969712</v>
+      </c>
+      <c r="R13">
+        <v>28.343249727408</v>
+      </c>
+      <c r="S13">
+        <v>0.002202444583164225</v>
+      </c>
+      <c r="T13">
+        <v>0.002202444583164226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.44779533333333</v>
+      </c>
+      <c r="N14">
+        <v>73.343386</v>
+      </c>
+      <c r="O14">
+        <v>0.1890645123346783</v>
+      </c>
+      <c r="P14">
+        <v>0.1890645123346783</v>
+      </c>
+      <c r="Q14">
+        <v>54.91863101763778</v>
+      </c>
+      <c r="R14">
+        <v>494.26767915874</v>
+      </c>
+      <c r="S14">
+        <v>0.03840763437735383</v>
+      </c>
+      <c r="T14">
+        <v>0.03840763437735384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.11074233333333</v>
+      </c>
+      <c r="N15">
+        <v>54.332227</v>
+      </c>
+      <c r="O15">
+        <v>0.1400575643155068</v>
+      </c>
+      <c r="P15">
+        <v>0.1400575643155068</v>
+      </c>
+      <c r="Q15">
+        <v>40.68330751704778</v>
+      </c>
+      <c r="R15">
+        <v>366.14976765343</v>
+      </c>
+      <c r="S15">
+        <v>0.02845208577530621</v>
+      </c>
+      <c r="T15">
+        <v>0.02845208577530621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.01239359444136</v>
-      </c>
-      <c r="N13">
-        <v>6.01239359444136</v>
-      </c>
-      <c r="O13">
-        <v>0.05201925054104627</v>
-      </c>
-      <c r="P13">
-        <v>0.05201925054104627</v>
-      </c>
-      <c r="Q13">
-        <v>13.15462082252051</v>
-      </c>
-      <c r="R13">
-        <v>13.15462082252051</v>
-      </c>
-      <c r="S13">
-        <v>0.01068488610455344</v>
-      </c>
-      <c r="T13">
-        <v>0.01068488610455344</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>80.684877</v>
+      </c>
+      <c r="N16">
+        <v>242.054631</v>
+      </c>
+      <c r="O16">
+        <v>0.6239682030546764</v>
+      </c>
+      <c r="P16">
+        <v>0.6239682030546765</v>
+      </c>
+      <c r="Q16">
+        <v>181.24754924731</v>
+      </c>
+      <c r="R16">
+        <v>1631.22794322579</v>
+      </c>
+      <c r="S16">
+        <v>0.1267564299089395</v>
+      </c>
+      <c r="T16">
+        <v>0.1267564299089396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.065862</v>
+      </c>
+      <c r="N17">
+        <v>18.197586</v>
+      </c>
+      <c r="O17">
+        <v>0.0469097202951384</v>
+      </c>
+      <c r="P17">
+        <v>0.04690972029513841</v>
+      </c>
+      <c r="Q17">
+        <v>13.62612998186</v>
+      </c>
+      <c r="R17">
+        <v>122.63516983674</v>
+      </c>
+      <c r="S17">
+        <v>0.009529505900347346</v>
+      </c>
+      <c r="T17">
+        <v>0.009529505900347348</v>
       </c>
     </row>
   </sheetData>
